--- a/Competition/Summer_2024/Liste de participant.xlsx
+++ b/Competition/Summer_2024/Liste de participant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacob Turcotte\Documents\GitHub\CCI_UdeS\Competition\Summer_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A483EE91-E6F2-4128-AA11-4CDB5B2C9EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D096A4-3FC4-4959-BEBA-FE87601E5398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14016" yWindow="0" windowWidth="13152" windowHeight="17424" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
   <si>
     <t>Liste de participants:</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Frank Gratton</t>
   </si>
   <si>
-    <t>William Stark</t>
-  </si>
-  <si>
     <t>Julien Brisson</t>
   </si>
   <si>
@@ -96,7 +93,7 @@
     <t>Charles (NA)</t>
   </si>
   <si>
-    <t>Victor (NA)</t>
+    <t>Victor Larose</t>
   </si>
 </sst>
 </file>
@@ -481,17 +478,17 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="3" width="26.88671875" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="3" width="26.85546875" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -502,139 +499,128 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
         <v>20</v>
       </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>22</v>
       </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
